--- a/1/1.xlsx
+++ b/1/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\杂项\draw_tools\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1319CD7-0E94-4466-A225-6626B6E9F2D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E3277F-25F9-424E-AC61-9BDDC52D8473}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{35B5DE8C-4D76-3647-8EDB-9F3B3EF9FFC2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{35B5DE8C-4D76-3647-8EDB-9F3B3EF9FFC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Write-30" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="67">
   <si>
     <t xml:space="preserve">Triggered wear-leveling </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,38 @@
   </si>
   <si>
     <t>hatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A25FB7-33FB-FE4B-95D5-6E12DC7358AF}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -642,6 +674,12 @@
       <c r="A1" t="s">
         <v>20</v>
       </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -1060,6 +1098,12 @@
       <c r="A16" t="s">
         <v>0</v>
       </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -1478,6 +1522,12 @@
       <c r="A31" t="s">
         <v>21</v>
       </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
@@ -1896,6 +1946,12 @@
       <c r="A46" t="s">
         <v>19</v>
       </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
@@ -2313,6 +2369,12 @@
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
@@ -2746,8 +2808,12 @@
       <c r="A76" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" t="s">
+        <v>66</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -3175,6 +3241,12 @@
       <c r="A91" t="s">
         <v>23</v>
       </c>
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
@@ -3619,6 +3691,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6623,7 +6696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BF7131-9351-46E3-9C20-48C798C3D346}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C13"/>
     </sheetView>
   </sheetViews>
